--- a/docs/Classeur1.xlsx
+++ b/docs/Classeur1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artmskfr/Desktop/Formations/3 - GitHub/Projects/2_HealthScope Diabetes/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6101C44-AA31-1F4F-A2D2-26A8542BD342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00AF581-4330-B74E-A940-96D9BD96643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34580" windowHeight="20660" activeTab="1" xr2:uid="{36851BB7-FC07-E946-9954-8F3EFDC14535}"/>
+    <workbookView xWindow="9760" yWindow="500" windowWidth="34560" windowHeight="20200" activeTab="2" xr2:uid="{36851BB7-FC07-E946-9954-8F3EFDC14535}"/>
   </bookViews>
   <sheets>
     <sheet name="First ver" sheetId="1" r:id="rId1"/>
     <sheet name="Second ver" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Third ver" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="287">
   <si>
     <t xml:space="preserve">Examination Data </t>
   </si>
@@ -1030,12 +1031,250 @@
       <t>?</t>
     </r>
   </si>
+  <si>
+    <t>DIQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doctor told you have diabetes</t>
+  </si>
+  <si>
+    <t>Age when first told you had diabetes</t>
+  </si>
+  <si>
+    <t>DID040?</t>
+  </si>
+  <si>
+    <t>DBD030</t>
+  </si>
+  <si>
+    <t>Age stopped breastfeeding(days)</t>
+  </si>
+  <si>
+    <t>DBD041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age first fed formula(days)</t>
+  </si>
+  <si>
+    <t>DBQ930</t>
+  </si>
+  <si>
+    <t>Main meal planner/preparer</t>
+  </si>
+  <si>
+    <r>
+      <t>MCQ080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Corps)"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MCQ160b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Corps)"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MCQ160m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Corps)"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MCQ160c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Corps)"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feeling down, depressed, or hopeless ( last 2 weeks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respondent sequence number ( last 2 weeks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trouble sleeping or sleeping too much  ( last 2 weeks)</t>
+  </si>
+  <si>
+    <t>Feeling tired or having little energy  ( last 2 weeks)</t>
+  </si>
+  <si>
+    <t>Feeling bad about yourself  ( last 2 weeks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trouble concentrating on things  ( last 2 weeks)</t>
+  </si>
+  <si>
+    <t>SMD030</t>
+  </si>
+  <si>
+    <t>SMQ040</t>
+  </si>
+  <si>
+    <t>Age started smoking cigarettes regularly</t>
+  </si>
+  <si>
+    <t>Do you now smoke cigarettes?</t>
+  </si>
+  <si>
+    <t>DBQ700</t>
+  </si>
+  <si>
+    <t>How healthy is the diet</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTSAFPRP </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 признака фастфуда </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(27,28)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Сделать два-три признака (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23,24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-2 признака </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(34,35)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 признака Работа, отдых, сидячая активность </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(36,37)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-3 признака Курение, стаж? Интенсивность, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39,40,41</t>
+    </r>
+  </si>
+  <si>
+    <t>Age first fed formula(days)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 признака свести к max BMI  и в возрасте 25 лет (или 10 лет назад )  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Corps)"/>
+      </rPr>
+      <t>42,43</t>
+    </r>
+  </si>
+  <si>
+    <t>Avg # cigarettes/day during past 30 days</t>
+  </si>
+  <si>
+    <t>Ever told you had high blood pressure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1120,8 +1359,28 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow (Corps)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Corps)"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,8 +1417,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1182,11 +1453,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,15 +1555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,9 +1587,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1256,9 +1595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,34 +1639,160 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,10 +1809,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1672,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A68E30-55D7-FC43-A373-DF686C31AA2B}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A89" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1688,13 +2146,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="19">
       <c r="A2" t="s">
@@ -1703,706 +2161,706 @@
       <c r="B2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="68">
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="102">
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="17">
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="19">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:7" ht="19">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="24">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="34" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="32">
-        <v>2</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="27">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34">
-      <c r="A14" s="46"/>
-      <c r="B14" s="32">
+      <c r="A14" s="45"/>
+      <c r="B14" s="27">
         <v>3</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="46"/>
-      <c r="B15" s="32">
+      <c r="A15" s="45"/>
+      <c r="B15" s="27">
         <v>4</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="46"/>
-      <c r="B16" s="32">
+      <c r="A16" s="45"/>
+      <c r="B16" s="27">
         <v>5</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="27">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="27">
-      <c r="B18" s="27"/>
-      <c r="C18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="14">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="14">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>7</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="51">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>8</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>9</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="51">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="27">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="19">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="19">
-      <c r="B31" s="29">
+      <c r="B31" s="24">
         <v>1</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="27">
+        <v>2</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="2:7" ht="38">
-      <c r="B33" s="32">
+      <c r="B33" s="27">
         <v>3</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="21" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="19">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>1</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="14">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:7" ht="19">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="39">
+      <c r="B38" s="34">
         <v>1</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="39">
-        <v>2</v>
-      </c>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="34">
+        <v>2</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="39">
+      <c r="B40" s="34">
         <v>3</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="39">
+      <c r="B41" s="34">
         <v>4</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="2:7" ht="19">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="14"/>
-      <c r="C43" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="14"/>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="14"/>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="41" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="14"/>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="14"/>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="11"/>
+      <c r="C47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="41" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="14"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="18">
-      <c r="B49" s="14"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="41" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="B50" s="14"/>
-      <c r="C50" s="12" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="17">
-      <c r="B51" s="14"/>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="12" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
       <c r="G52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="50"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="12" t="s">
+      <c r="A53" s="46"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="19">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
     </row>
     <row r="55" spans="1:7">
       <c r="C55" t="s">
@@ -2419,18 +2877,18 @@
       <c r="D56" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="19">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
     </row>
     <row r="58" spans="1:7">
       <c r="C58" t="s">
@@ -2460,23 +2918,23 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="27">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="1:7" ht="19">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="1:7">
       <c r="C63" t="s">
@@ -2487,7 +2945,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="39" t="s">
         <v>239</v>
       </c>
       <c r="C64" t="s">
@@ -2501,7 +2959,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="39" t="s">
         <v>242</v>
       </c>
       <c r="C65" t="s">
@@ -2526,7 +2984,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="39" t="s">
         <v>238</v>
       </c>
       <c r="C67" t="s">
@@ -2540,7 +2998,6 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="51"/>
       <c r="C68" t="s">
         <v>243</v>
       </c>
@@ -2549,13 +3006,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="19">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" t="s">
@@ -2574,7 +3031,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="18">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C72" t="s">
@@ -2583,12 +3040,12 @@
       <c r="D72" t="s">
         <v>132</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C73" t="s">
@@ -2610,7 +3067,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C75" t="s">
@@ -2624,13 +3081,13 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" t="s">
@@ -2649,7 +3106,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="37" t="s">
         <v>232</v>
       </c>
       <c r="C79" t="s">
@@ -2660,13 +3117,13 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="19">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
     </row>
     <row r="81" spans="2:7">
       <c r="C81" t="s">
@@ -2677,7 +3134,7 @@
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="48" t="s">
         <v>232</v>
       </c>
       <c r="C82" t="s">
@@ -2686,7 +3143,7 @@
       <c r="D82" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="32" t="s">
         <v>149</v>
       </c>
       <c r="G82" t="s">
@@ -2694,7 +3151,7 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="44"/>
+      <c r="B83" s="48"/>
       <c r="C83" t="s">
         <v>152</v>
       </c>
@@ -2703,7 +3160,7 @@
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="44"/>
+      <c r="B84" s="48"/>
       <c r="C84" t="s">
         <v>154</v>
       </c>
@@ -2712,7 +3169,7 @@
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="44"/>
+      <c r="B85" s="48"/>
       <c r="C85" t="s">
         <v>156</v>
       </c>
@@ -2721,7 +3178,7 @@
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="44"/>
+      <c r="B86" s="48"/>
       <c r="C86" t="s">
         <v>158</v>
       </c>
@@ -2730,13 +3187,13 @@
       </c>
     </row>
     <row r="87" spans="2:7" ht="19">
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
     </row>
     <row r="88" spans="2:7">
       <c r="C88" t="s">
@@ -2753,18 +3210,18 @@
       <c r="D89" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="19">
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
     </row>
     <row r="91" spans="2:7">
       <c r="C91" t="s">
@@ -2797,13 +3254,13 @@
       </c>
     </row>
     <row r="94" spans="2:7" ht="19">
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
     </row>
     <row r="95" spans="2:7">
       <c r="C95" t="s">
@@ -2814,7 +3271,7 @@
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C96" t="s">
@@ -2849,7 +3306,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C100" t="s">
@@ -2860,10 +3317,10 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="43" t="s">
+      <c r="A101" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B101" s="43"/>
+      <c r="B101" s="38"/>
       <c r="C101" t="s">
         <v>182</v>
       </c>
@@ -2872,7 +3329,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="38" t="s">
         <v>235</v>
       </c>
       <c r="C102" t="s">
@@ -2886,13 +3343,13 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="19">
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
     </row>
     <row r="104" spans="1:6">
       <c r="C104" t="s">
@@ -2943,13 +3400,13 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="19">
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
     </row>
     <row r="111" spans="1:6">
       <c r="C111" t="s">
@@ -2960,7 +3417,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="B112" s="44" t="s">
+      <c r="B112" s="48" t="s">
         <v>233</v>
       </c>
       <c r="C112" t="s">
@@ -2971,7 +3428,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="B113" s="44"/>
+      <c r="B113" s="48"/>
       <c r="C113" t="s">
         <v>201</v>
       </c>
@@ -2980,7 +3437,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="B114" s="44"/>
+      <c r="B114" s="48"/>
       <c r="C114" t="s">
         <v>203</v>
       </c>
@@ -2989,7 +3446,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="B115" s="44"/>
+      <c r="B115" s="48"/>
       <c r="C115" t="s">
         <v>205</v>
       </c>
@@ -3001,7 +3458,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="B116" s="44"/>
+      <c r="B116" s="48"/>
       <c r="C116" t="s">
         <v>207</v>
       </c>
@@ -3021,13 +3478,13 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="19">
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
     </row>
     <row r="119" spans="1:6">
       <c r="C119" t="s">
@@ -3046,7 +3503,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="38" t="s">
         <v>235</v>
       </c>
       <c r="C121" t="s">
@@ -3057,7 +3514,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="B122" s="43" t="s">
+      <c r="B122" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C122" t="s">
@@ -3068,13 +3525,13 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="19">
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
     </row>
     <row r="124" spans="1:6">
       <c r="C124" t="s">
@@ -3101,13 +3558,13 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="19">
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
     </row>
     <row r="128" spans="1:6">
       <c r="C128" t="s">
@@ -3118,7 +3575,7 @@
       </c>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="48" t="s">
         <v>232</v>
       </c>
       <c r="C129" t="s">
@@ -3129,7 +3586,7 @@
       </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="44"/>
+      <c r="B130" s="48"/>
       <c r="C130" t="s">
         <v>227</v>
       </c>
@@ -3138,7 +3595,7 @@
       </c>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="44"/>
+      <c r="B131" s="48"/>
       <c r="C131" t="s">
         <v>228</v>
       </c>
@@ -3148,12 +3605,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B87:F87"/>
     <mergeCell ref="B90:F90"/>
@@ -3161,6 +3619,12 @@
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B110:F110"/>
     <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B112:B116"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="B62:F62"/>
@@ -3171,13 +3635,6 @@
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3186,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A4794-D987-E04F-93DC-757C1339BC85}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3197,612 +3654,612 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="19">
       <c r="A2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="68">
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="102">
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="17">
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="19">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="34" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="32">
+      <c r="A11" s="45"/>
+      <c r="B11" s="27">
         <v>9</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34">
-      <c r="A12" s="46"/>
-      <c r="B12" s="32">
+      <c r="A12" s="45"/>
+      <c r="B12" s="27">
         <v>10</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="46"/>
-      <c r="B13" s="32">
+      <c r="A13" s="45"/>
+      <c r="B13" s="27">
         <v>11</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="46"/>
-      <c r="B14" s="32">
+      <c r="A14" s="45"/>
+      <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="27">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="B16" s="27"/>
-      <c r="C16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="14">
+      <c r="B19" s="11">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="14">
+      <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>17</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>18</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>19</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="51">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>21</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="51">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="27">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" ht="19">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="19">
-      <c r="B29" s="52"/>
-      <c r="C29" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="32">
+      <c r="B30" s="27">
         <v>23</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="38">
-      <c r="B31" s="32">
+      <c r="B31" s="27">
         <v>24</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="21" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="14"/>
-      <c r="C33" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="14">
+      <c r="B34" s="11">
         <v>25</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:7" ht="19">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="39"/>
-      <c r="C37" s="40" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="39">
+      <c r="B38" s="34">
         <v>26</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="2:7" ht="19">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="14"/>
-      <c r="C40" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>27</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="41" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>28</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="41" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="18">
-      <c r="B43" s="14"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="41" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>29</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:7" ht="17">
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>30</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="19">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
     </row>
     <row r="47" spans="2:7">
       <c r="C47" t="s">
@@ -3822,18 +4279,18 @@
       <c r="D48" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:7">
       <c r="C50" t="s">
@@ -3858,23 +4315,23 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="27">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="19">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:7">
       <c r="C54" t="s">
@@ -3885,7 +4342,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="39" t="s">
         <v>239</v>
       </c>
       <c r="B55" s="5">
@@ -3902,7 +4359,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="39" t="s">
         <v>242</v>
       </c>
       <c r="B56" s="5">
@@ -3933,7 +4390,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="39" t="s">
         <v>238</v>
       </c>
       <c r="B58" s="5">
@@ -3950,7 +4407,6 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="51"/>
       <c r="B59" s="5">
         <v>37</v>
       </c>
@@ -3962,13 +4418,13 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="19">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
     </row>
     <row r="61" spans="1:7">
       <c r="C61" t="s">
@@ -3990,7 +4446,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="18">
-      <c r="B63" s="53">
+      <c r="B63" s="5">
         <v>39</v>
       </c>
       <c r="C63" t="s">
@@ -3999,12 +4455,12 @@
       <c r="D63" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="B64" s="53">
+      <c r="B64" s="5">
         <v>40</v>
       </c>
       <c r="C64" t="s">
@@ -4018,7 +4474,7 @@
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="53">
+      <c r="B65" s="5">
         <v>41</v>
       </c>
       <c r="C65" t="s">
@@ -4029,7 +4485,7 @@
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="53">
+      <c r="B66" s="5">
         <v>42</v>
       </c>
       <c r="C66" t="s">
@@ -4043,13 +4499,13 @@
       </c>
     </row>
     <row r="67" spans="2:7" ht="19">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
     </row>
     <row r="68" spans="2:7">
       <c r="C68" t="s">
@@ -4071,7 +4527,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="54"/>
+      <c r="B70" s="44"/>
       <c r="C70" t="s">
         <v>245</v>
       </c>
@@ -4079,165 +4535,142 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="19">
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="2:7">
+      <c r="B71" s="44"/>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="44"/>
+      <c r="C72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="19">
+      <c r="B73" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="53">
+    <row r="75" spans="2:7">
+      <c r="B75" s="5">
         <v>44</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>148</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E75" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="53">
+    <row r="76" spans="2:7">
+      <c r="B76" s="5">
         <v>45</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>152</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="53">
+    <row r="77" spans="2:7">
+      <c r="B77" s="5">
         <v>46</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>154</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="53">
+    <row r="78" spans="2:7">
+      <c r="B78" s="5">
         <v>47</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>156</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="53">
+    <row r="79" spans="2:7">
+      <c r="B79" s="5">
         <v>48</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>158</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="19">
-      <c r="B78" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="C79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="18">
-      <c r="B80" s="5">
-        <v>49</v>
-      </c>
+    <row r="80" spans="2:7">
       <c r="C80" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="19">
-      <c r="B81" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="C81" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="82" spans="2:6">
       <c r="C82" t="s">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="C83" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="5">
-        <v>50</v>
-      </c>
-      <c r="C84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" t="s">
-        <v>169</v>
-      </c>
-      <c r="E84" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="19">
-      <c r="B85" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="B85" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
     </row>
     <row r="86" spans="2:6">
       <c r="C86" t="s">
@@ -4247,69 +4680,70 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="53">
-        <v>51</v>
+    <row r="87" spans="2:6" ht="18">
+      <c r="B87" s="5">
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="53">
-        <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" t="s">
-        <v>175</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="19">
+      <c r="B88" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="53">
-        <v>53</v>
-      </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="53">
-        <v>54</v>
-      </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>166</v>
+      </c>
+      <c r="E90" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="53">
-        <v>55</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>180</v>
+      <c r="B91" s="5">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>169</v>
+      </c>
+      <c r="E91" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="19">
-      <c r="B92" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="B92" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" t="s">
@@ -4321,302 +4755,2019 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="5">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="D95" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="5">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="5">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="5">
-        <v>60</v>
-      </c>
-      <c r="C98" t="s">
-        <v>196</v>
+        <v>55</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="19">
-      <c r="B99" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="B99" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
     </row>
     <row r="100" spans="2:6">
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="5">
+        <v>56</v>
+      </c>
+      <c r="C101" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="5">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="5">
+        <v>58</v>
+      </c>
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="5">
+        <v>59</v>
+      </c>
+      <c r="C104" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="5">
+        <v>60</v>
+      </c>
+      <c r="C105" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="19">
+      <c r="B106" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="53">
+    <row r="108" spans="2:6">
+      <c r="B108" s="5">
         <v>61</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C108" t="s">
         <v>199</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D108" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="53">
-        <v>62</v>
-      </c>
-      <c r="C102" t="s">
-        <v>201</v>
-      </c>
-      <c r="D102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="53">
-        <v>63</v>
-      </c>
-      <c r="C103" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="53">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" t="s">
-        <v>206</v>
-      </c>
-      <c r="E104" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="53">
-        <v>65</v>
-      </c>
-      <c r="C105" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="5">
-        <v>66</v>
-      </c>
-      <c r="C106" t="s">
-        <v>209</v>
-      </c>
-      <c r="D106" t="s">
-        <v>210</v>
-      </c>
-      <c r="E106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" ht="19">
-      <c r="B107" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="5">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="53">
-        <v>68</v>
+      <c r="B110" s="5">
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="19">
-      <c r="B111" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="5">
+        <v>64</v>
+      </c>
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="112" spans="2:6">
+      <c r="B112" s="5">
+        <v>65</v>
+      </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="5">
+        <v>66</v>
+      </c>
+      <c r="C113" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="19">
+      <c r="B114" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="5">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="5">
+        <v>68</v>
+      </c>
+      <c r="C117" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="19">
+      <c r="B118" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="5">
         <v>69</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C120" t="s">
         <v>220</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D120" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="5">
+    <row r="121" spans="2:6">
+      <c r="B121" s="5">
         <v>70</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C121" t="s">
         <v>221</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D121" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="19">
-      <c r="B115" s="7" t="s">
+    <row r="122" spans="2:6">
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="C123" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="19">
+      <c r="B124" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="C116" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="53">
+    <row r="126" spans="2:6">
+      <c r="B126" s="5">
         <v>71</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C126" t="s">
         <v>226</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D126" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="53">
+    <row r="127" spans="2:6">
+      <c r="B127" s="5">
         <v>72</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C127" t="s">
         <v>227</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D127" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="53">
+    <row r="128" spans="2:6">
+      <c r="B128" s="5">
         <v>73</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C128" t="s">
         <v>228</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D128" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B99:F99"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EFCE81-6593-9D43-B023-62F60C784633}">
+  <dimension ref="A1:G131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="55"/>
+    <col min="3" max="3" width="22.1640625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="53" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="78.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27">
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
+      <c r="A2" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="56">
+        <v>2</v>
+      </c>
+      <c r="B4" s="55">
+        <v>2</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="56">
+        <v>3</v>
+      </c>
+      <c r="B5" s="55">
+        <v>3</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="68">
+      <c r="A6" s="55">
+        <v>4</v>
+      </c>
+      <c r="B6" s="55">
+        <v>4</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="102">
+      <c r="A7" s="55">
+        <v>5</v>
+      </c>
+      <c r="B7" s="55">
+        <v>5</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="17">
+      <c r="A8" s="56">
+        <v>6</v>
+      </c>
+      <c r="B8" s="55">
+        <v>6</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19">
+      <c r="B9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="19">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+    </row>
+    <row r="11" spans="1:7" ht="34" customHeight="1">
+      <c r="A11" s="58">
+        <v>7</v>
+      </c>
+      <c r="B11" s="55">
+        <v>7</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34">
+      <c r="A12" s="58">
+        <v>8</v>
+      </c>
+      <c r="B12" s="55">
+        <v>8</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="58">
+        <v>9</v>
+      </c>
+      <c r="B13" s="55">
+        <v>9</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="58"/>
+      <c r="B14" s="55">
+        <v>10</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27">
+      <c r="B15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="B16" s="61"/>
+      <c r="C16" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="55">
+        <v>11</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="56">
+        <v>10</v>
+      </c>
+      <c r="B18" s="55">
+        <v>12</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="56">
+        <v>11</v>
+      </c>
+      <c r="B19" s="55">
+        <v>13</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="56">
+        <v>12</v>
+      </c>
+      <c r="B20" s="55">
+        <v>14</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="55">
+        <v>15</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="56">
+        <v>13</v>
+      </c>
+      <c r="B22" s="55">
+        <v>16</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="55">
+        <v>17</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="58"/>
+      <c r="C24" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="56">
+        <v>14</v>
+      </c>
+      <c r="B25" s="55">
+        <v>18</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="59">
+        <v>15</v>
+      </c>
+      <c r="B26" s="55">
+        <v>19</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27">
+      <c r="B27" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+    </row>
+    <row r="28" spans="1:7" ht="19">
+      <c r="B28" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="19">
+      <c r="B29" s="62"/>
+      <c r="C29" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="38">
+      <c r="A31" s="56">
+        <v>16</v>
+      </c>
+      <c r="B31" s="55">
+        <v>20</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19">
+      <c r="B32" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="56">
+        <v>17</v>
+      </c>
+      <c r="B34" s="55">
+        <v>21</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19">
+      <c r="B35" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="56">
+        <v>18</v>
+      </c>
+      <c r="B38" s="55">
+        <v>22</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19">
+      <c r="B39" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="56">
+        <v>19</v>
+      </c>
+      <c r="B41" s="55">
+        <v>23</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="56">
+        <v>20</v>
+      </c>
+      <c r="B42" s="55">
+        <v>24</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="56">
+        <v>21</v>
+      </c>
+      <c r="B43" s="55">
+        <v>25</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="55">
+        <v>26</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17">
+      <c r="A45" s="56">
+        <v>22</v>
+      </c>
+      <c r="B45" s="55">
+        <v>27</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19">
+      <c r="B46" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="55">
+        <v>28</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19">
+      <c r="B49" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="C50" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="55">
+        <v>29</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="27">
+      <c r="B52" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+    <row r="53" spans="1:7" ht="19">
+      <c r="B53" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="55">
+        <v>30</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="57"/>
+      <c r="B56" s="55">
+        <v>31</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="57"/>
+      <c r="B57" s="55">
+        <v>32</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="57"/>
+      <c r="B58" s="55">
+        <v>33</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="57"/>
+      <c r="B59" s="55">
+        <v>34</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19">
+      <c r="B60" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="56">
+        <v>25</v>
+      </c>
+      <c r="B62" s="55">
+        <v>35</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18">
+      <c r="B63" s="55">
+        <v>36</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="55">
+        <v>37</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="56">
+        <v>26</v>
+      </c>
+      <c r="B65" s="55">
+        <v>38</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66" s="55">
+        <v>39</v>
+      </c>
+      <c r="C66" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19">
+      <c r="B67" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="C68" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="81">
+        <v>40</v>
+      </c>
+      <c r="C69" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" s="81">
+        <v>41</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="81">
+        <v>42</v>
+      </c>
+      <c r="C71" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="81">
+        <v>43</v>
+      </c>
+      <c r="C72" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="19">
+      <c r="B73" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="C74" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" s="84">
+        <v>44</v>
+      </c>
+      <c r="C75" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="87"/>
+      <c r="B76" s="88">
+        <v>45</v>
+      </c>
+      <c r="C76" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="87"/>
+      <c r="B77" s="88">
+        <v>46</v>
+      </c>
+      <c r="C77" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="87"/>
+      <c r="B78" s="88">
+        <v>47</v>
+      </c>
+      <c r="C78" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="91"/>
+      <c r="B79" s="92">
+        <v>48</v>
+      </c>
+      <c r="C79" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="55">
+        <v>49</v>
+      </c>
+      <c r="C80" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="55">
+        <v>50</v>
+      </c>
+      <c r="C81" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="56">
+        <v>29</v>
+      </c>
+      <c r="B82" s="55">
+        <v>51</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="56">
+        <v>30</v>
+      </c>
+      <c r="B83" s="55">
+        <v>52</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="19">
+      <c r="B85" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="C86" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18">
+      <c r="A87" s="56">
+        <v>31</v>
+      </c>
+      <c r="B87" s="55">
+        <v>53</v>
+      </c>
+      <c r="C87" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" s="74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="19">
+      <c r="B88" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="C90" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="C91" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" s="53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="19">
+      <c r="B92" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="56">
+        <v>32</v>
+      </c>
+      <c r="B94" s="55">
+        <v>54</v>
+      </c>
+      <c r="C94" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" s="55">
+        <v>55</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="55">
+        <v>56</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" s="55">
+        <v>57</v>
+      </c>
+      <c r="C97" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="56">
+        <v>33</v>
+      </c>
+      <c r="B98" s="55">
+        <v>58</v>
+      </c>
+      <c r="C98" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19">
+      <c r="B99" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="C100" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" s="55">
+        <v>59</v>
+      </c>
+      <c r="C101" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="57"/>
+      <c r="B102" s="55">
+        <v>60</v>
+      </c>
+      <c r="C102" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="57"/>
+      <c r="B103" s="55">
+        <v>61</v>
+      </c>
+      <c r="C103" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="57"/>
+      <c r="B104" s="55">
+        <v>62</v>
+      </c>
+      <c r="C104" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="57"/>
+      <c r="B105" s="55">
+        <v>63</v>
+      </c>
+      <c r="C105" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" s="53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="19">
+      <c r="B106" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="55">
+        <v>64</v>
+      </c>
+      <c r="C108" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="57"/>
+      <c r="B109" s="55">
+        <v>65</v>
+      </c>
+      <c r="C109" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="57"/>
+      <c r="B110" s="55">
+        <v>66</v>
+      </c>
+      <c r="C110" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="57"/>
+      <c r="B111" s="55">
+        <v>67</v>
+      </c>
+      <c r="C111" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="57"/>
+      <c r="B112" s="55">
+        <v>68</v>
+      </c>
+      <c r="C112" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D112" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="57"/>
+      <c r="B113" s="55">
+        <v>69</v>
+      </c>
+      <c r="C113" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="19">
+      <c r="B114" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="C115" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="56">
+        <v>38</v>
+      </c>
+      <c r="B116" s="55">
+        <v>70</v>
+      </c>
+      <c r="C116" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="55">
+        <v>71</v>
+      </c>
+      <c r="C117" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="19">
+      <c r="B118" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="C119" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="B120" s="55">
+        <v>72</v>
+      </c>
+      <c r="C120" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="57"/>
+      <c r="B121" s="55">
+        <v>73</v>
+      </c>
+      <c r="C121" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="57"/>
+      <c r="B122" s="55">
+        <v>74</v>
+      </c>
+      <c r="C122" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="57"/>
+      <c r="B123" s="55">
+        <v>75</v>
+      </c>
+      <c r="C123" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="19">
+      <c r="B124" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="C125" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" s="55">
+        <v>76</v>
+      </c>
+      <c r="C126" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="95"/>
+      <c r="B127" s="55">
+        <v>77</v>
+      </c>
+      <c r="C127" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" s="53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="95"/>
+      <c r="B128" s="55">
+        <v>78</v>
+      </c>
+      <c r="C128" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A10:A14"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="B15:G15"/>
   </mergeCells>
@@ -4625,7 +6776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D4C38D-1598-5747-A09D-6C058862D875}">
   <dimension ref="B1"/>
   <sheetViews>
